--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1320,6 +1320,17 @@
         <v>2.837</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1331,6 +1331,17 @@
         <v>2.562</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1342,6 +1342,17 @@
         <v>2.544</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1353,6 +1353,17 @@
         <v>2.263</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1364,6 +1364,17 @@
         <v>2.348</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.598</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1375,6 +1375,17 @@
         <v>2.342</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1386,6 +1386,17 @@
         <v>1.654</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1397,6 +1397,17 @@
         <v>1.738</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1408,6 +1408,17 @@
         <v>1.482</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1419,6 +1419,39 @@
         <v>1.644</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.197</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.998</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1452,6 +1452,28 @@
         <v>2.069</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.498</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.655</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1474,6 +1474,17 @@
         <v>1.796</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1485,6 +1485,28 @@
         <v>1.957</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.963</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2.218</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/trimmed_graph_data.xlsx
+++ b/trimmed_graph_data.xlsx
@@ -1507,6 +1507,39 @@
         <v>1.949</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2.534</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.647</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2.554</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
